--- a/Romana/Lisra_concursuri.xlsx
+++ b/Romana/Lisra_concursuri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Scoala\Proiecte\proiecte_scoala\Romana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8116DF22-65A2-4DA4-A467-EC094D811E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1307AA-9440-4C80-BFC1-B5565E1000F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B9D2C2F2-5FA4-4A75-AB3C-629789F8FAB8}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Tabirca Rares</t>
+  </si>
+  <si>
+    <t>Icoana sufletului de copil, Drag faţă de patrie</t>
   </si>
 </sst>
 </file>
@@ -407,13 +410,13 @@
   <dimension ref="A4:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="87.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +432,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
